--- a/workspace/tests/files/invalid_config_broken_fk_portfolio.xlsx
+++ b/workspace/tests/files/invalid_config_broken_fk_portfolio.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Groupings" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Products and Perils" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Moody's Reference Data" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ExposureGroup &lt;-&gt; Portname" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="Analysis">'Analysis Table'!$C$2:$C$498</definedName>
@@ -1701,6 +1702,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ExposureGroup</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Portname</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>USHU_Hurricane_Full</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>USHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>USEQ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>USEQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>USFL_Flood_Full</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>USFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CBHU_Hurricane_Full</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CBHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CBEQ_QuakeBC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CBEQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MEHU</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MEHU</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PRHU</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PRHU</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
